--- a/Furtherexploration2_comparisiontable.xlsx
+++ b/Furtherexploration2_comparisiontable.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Distantly related</t>
   </si>
   <si>
-    <t xml:space="preserve">Gene</t>
+    <t xml:space="preserve">Protein</t>
   </si>
   <si>
     <t xml:space="preserve">Control1</t>
@@ -58,6 +58,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -79,6 +80,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,12 +125,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -156,7 +162,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -179,24 +185,24 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -213,7 +219,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="n">
@@ -230,7 +236,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="n">
